--- a/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CC6310-6024-4482-889F-DBD60A266496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03216BA8-1231-44A3-B1AD-F06CA5736569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46578C65-3E61-405F-91C8-776B5DA5C277}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8935BD5-BD2E-4F01-8B85-481A7FB58505}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
   <si>
-    <t>Población que, necesitandolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
+    <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>75,01%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,322 +137,322 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>0,21%</t>
+    <t>0,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E624F2-0E1A-4779-809F-F55E6CAC9D7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD552664-29F9-485D-940E-BD22801B8F53}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1407,7 +1407,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>795</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>32</v>
@@ -1431,7 +1431,7 @@
         <v>1609</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>32</v>
@@ -1479,7 +1479,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
@@ -1607,13 +1607,13 @@
         <v>2779</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1622,13 +1622,13 @@
         <v>3529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -1637,13 +1637,13 @@
         <v>6308</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,7 +1679,7 @@
         <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,13 +1762,13 @@
         <v>419714</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>413</v>
@@ -1777,13 +1777,13 @@
         <v>353059</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>784</v>
@@ -1792,13 +1792,13 @@
         <v>772772</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1813,13 @@
         <v>1083982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1928</v>
@@ -1828,13 +1828,13 @@
         <v>1306281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3000</v>
@@ -1843,13 +1843,13 @@
         <v>2390262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1864,13 @@
         <v>7941</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -1879,13 +1879,13 @@
         <v>16698</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -1894,13 +1894,13 @@
         <v>24639</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1915,13 @@
         <v>813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1930,13 +1930,13 @@
         <v>2156</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>

--- a/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03216BA8-1231-44A3-B1AD-F06CA5736569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FA581D-A924-488D-8DB2-DE5A494D085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8935BD5-BD2E-4F01-8B85-481A7FB58505}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA72BF5B-0BE3-4AFB-B5CA-061783174B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD552664-29F9-485D-940E-BD22801B8F53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE675A0-4787-49E1-A693-FB90314F3D96}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FA581D-A924-488D-8DB2-DE5A494D085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C5D556-D7EB-49A9-A7EF-B8D6B06C93F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA72BF5B-0BE3-4AFB-B5CA-061783174B4D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44B21D99-AA95-4F42-8B39-3FBD99BA8184}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>75,01%</t>
   </si>
   <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,310 +137,307 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -449,10 +446,13 @@
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE675A0-4787-49E1-A693-FB90314F3D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62142CB-A7B8-42CD-AD6A-AFF96B24F95C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1407,7 +1407,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>795</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>32</v>
@@ -1431,7 +1431,7 @@
         <v>1609</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>32</v>
@@ -1479,7 +1479,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
@@ -1607,13 +1607,13 @@
         <v>2779</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1622,13 +1622,13 @@
         <v>3529</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -1637,13 +1637,13 @@
         <v>6308</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,7 +1679,7 @@
         <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,13 +1762,13 @@
         <v>419714</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>413</v>
@@ -1777,13 +1777,13 @@
         <v>353059</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>784</v>
@@ -1792,13 +1792,13 @@
         <v>772772</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1813,13 @@
         <v>1083982</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1928</v>
@@ -1828,13 +1828,13 @@
         <v>1306281</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3000</v>
@@ -1843,13 +1843,13 @@
         <v>2390262</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1864,13 @@
         <v>7941</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -1879,13 +1879,13 @@
         <v>16698</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -1894,13 +1894,13 @@
         <v>24639</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1915,13 @@
         <v>813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1930,13 +1930,13 @@
         <v>2156</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>

--- a/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C5D556-D7EB-49A9-A7EF-B8D6B06C93F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A19C0B-6E96-4B29-BB56-10BCF8418209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44B21D99-AA95-4F42-8B39-3FBD99BA8184}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FEDE6551-3742-4EE0-8C0D-42E5CC841CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,91 +71,91 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
-    <t>0,8%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -167,10 +167,10 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -185,274 +185,274 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>0,21%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62142CB-A7B8-42CD-AD6A-AFF96B24F95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8343C4-C1CB-4C3E-B31A-C4148ECC334A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -988,7 +988,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>58047</v>
+        <v>56117</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>42973</v>
+        <v>38871</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1018,7 +1018,7 @@
         <v>134</v>
       </c>
       <c r="N4" s="7">
-        <v>101020</v>
+        <v>94988</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1039,7 +1039,7 @@
         <v>230</v>
       </c>
       <c r="D5" s="7">
-        <v>180021</v>
+        <v>172925</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1054,7 +1054,7 @@
         <v>558</v>
       </c>
       <c r="I5" s="7">
-        <v>326132</v>
+        <v>293306</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1069,7 +1069,7 @@
         <v>788</v>
       </c>
       <c r="N5" s="7">
-        <v>506153</v>
+        <v>466231</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1923</v>
+        <v>1835</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>4962</v>
+        <v>4511</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>6885</v>
+        <v>6346</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1360</v>
+        <v>1246</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1360</v>
+        <v>1246</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
@@ -1192,7 +1192,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -1207,7 +1207,7 @@
         <v>634</v>
       </c>
       <c r="I8" s="7">
-        <v>375427</v>
+        <v>337934</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>47</v>
@@ -1222,7 +1222,7 @@
         <v>934</v>
       </c>
       <c r="N8" s="7">
-        <v>615418</v>
+        <v>568811</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1245,7 +1245,7 @@
         <v>230</v>
       </c>
       <c r="D9" s="7">
-        <v>277964</v>
+        <v>265504</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>49</v>
@@ -1260,7 +1260,7 @@
         <v>249</v>
       </c>
       <c r="I9" s="7">
-        <v>229942</v>
+        <v>263480</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -1275,7 +1275,7 @@
         <v>479</v>
       </c>
       <c r="N9" s="7">
-        <v>507905</v>
+        <v>528984</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>55</v>
@@ -1296,7 +1296,7 @@
         <v>599</v>
       </c>
       <c r="D10" s="7">
-        <v>666112</v>
+        <v>847809</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -1311,7 +1311,7 @@
         <v>1031</v>
       </c>
       <c r="I10" s="7">
-        <v>724392</v>
+        <v>665881</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>61</v>
@@ -1326,7 +1326,7 @@
         <v>1630</v>
       </c>
       <c r="N10" s="7">
-        <v>1390504</v>
+        <v>1513689</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>3240</v>
+        <v>3056</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>67</v>
@@ -1362,31 +1362,31 @@
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>8207</v>
+        <v>7185</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>11447</v>
+        <v>10241</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,25 +1398,25 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>32</v>
@@ -1428,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1609</v>
+        <v>1531</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>32</v>
@@ -1449,7 +1449,7 @@
         <v>834</v>
       </c>
       <c r="D13" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
@@ -1464,7 +1464,7 @@
         <v>1291</v>
       </c>
       <c r="I13" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -1479,7 +1479,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
@@ -1502,7 +1502,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>83703</v>
+        <v>79265</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>81</v>
@@ -1517,7 +1517,7 @@
         <v>98</v>
       </c>
       <c r="I14" s="7">
-        <v>80145</v>
+        <v>72606</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>84</v>
@@ -1532,7 +1532,7 @@
         <v>171</v>
       </c>
       <c r="N14" s="7">
-        <v>163848</v>
+        <v>151871</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>87</v>
@@ -1541,7 +1541,7 @@
         <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,46 +1553,46 @@
         <v>243</v>
       </c>
       <c r="D15" s="7">
-        <v>237848</v>
+        <v>228307</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>339</v>
       </c>
       <c r="I15" s="7">
-        <v>255756</v>
+        <v>236387</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>582</v>
       </c>
       <c r="N15" s="7">
-        <v>493606</v>
+        <v>464695</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2779</v>
+        <v>2611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
@@ -1619,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3529</v>
+        <v>3294</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>101</v>
@@ -1634,16 +1634,16 @@
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>6308</v>
+        <v>5905</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>47</v>
@@ -1721,7 +1721,7 @@
         <v>443</v>
       </c>
       <c r="I18" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>47</v>
@@ -1736,7 +1736,7 @@
         <v>761</v>
       </c>
       <c r="N18" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>47</v>
@@ -1759,46 +1759,46 @@
         <v>371</v>
       </c>
       <c r="D19" s="7">
-        <v>419714</v>
+        <v>400885</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>413</v>
       </c>
       <c r="I19" s="7">
-        <v>353059</v>
+        <v>374957</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>784</v>
       </c>
       <c r="N19" s="7">
-        <v>772772</v>
+        <v>775842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,46 +1810,46 @@
         <v>1072</v>
       </c>
       <c r="D20" s="7">
-        <v>1083982</v>
+        <v>1249041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1928</v>
       </c>
       <c r="I20" s="7">
-        <v>1306281</v>
+        <v>1195573</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3000</v>
       </c>
       <c r="N20" s="7">
-        <v>2390262</v>
+        <v>2444615</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,46 +1861,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>7941</v>
+        <v>7502</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
       </c>
       <c r="I21" s="7">
-        <v>16698</v>
+        <v>14990</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
       </c>
       <c r="N21" s="7">
-        <v>24639</v>
+        <v>22492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>2156</v>
+        <v>2013</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>134</v>
@@ -1936,16 +1936,16 @@
         <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2969</v>
+        <v>2778</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>137</v>
@@ -1963,7 +1963,7 @@
         <v>1452</v>
       </c>
       <c r="D23" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>47</v>
@@ -1978,7 +1978,7 @@
         <v>2368</v>
       </c>
       <c r="I23" s="7">
-        <v>1678194</v>
+        <v>1587534</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>47</v>
@@ -1993,7 +1993,7 @@
         <v>3820</v>
       </c>
       <c r="N23" s="7">
-        <v>3190643</v>
+        <v>3245727</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>47</v>
